--- a/pitcher_matchups_2025-08-03.xlsx
+++ b/pitcher_matchups_2025-08-03.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="97">
   <si>
     <t>StartTime</t>
   </si>
@@ -38,7 +38,7 @@
     <t>12:10 PM</t>
   </si>
   <si>
-    <t>1:00 PM</t>
+    <t>1:05 PM</t>
   </si>
   <si>
     <t>1:35 PM</t>
@@ -281,6 +281,14 @@
 Sal Frelick (RF)</t>
   </si>
   <si>
+    <t>Bo Naylor (C)
+C.J. Kayfus (1B)
+Daniel Schneemann (2B)
+Kyle Manzardo (1B)
+Nolan Jones (RF)
+Steven Kwan (LF)</t>
+  </si>
+  <si>
     <t>Kyle Tucker (RF)
 Michael Busch (1B)
 Pete Crow-Armstrong (CF)
@@ -290,6 +298,19 @@
     <t>Jack Suwinski (RF)
 Oneil Cruz (CF)
 Spencer Horwitz (1B)</t>
+  </si>
+  <si>
+    <t>Adrian Del Castillo (C)
+Alek Thomas (CF)
+Corbin Carroll (RF)
+Jake McCarthy (CF)</t>
+  </si>
+  <si>
+    <t>Carlos Cortes (LF)
+JJ Bleday (CF)
+Lawrence Butler (RF)
+Nick Kurtz (1B)
+Tyler Soderstrom (LF)</t>
   </si>
   <si>
     <t>Andrew Vaughn (1B)
@@ -321,18 +342,6 @@
 Tommy Pham (LF)</t>
   </si>
   <si>
-    <t>Austin Nola (C)
-Brenton Doyle (CF)
-Ezequiel Tovar (SS)
-Hunter Goodman (C)
-Jordan Beck (LF)
-Kyle Farmer (2B)
-Orlando Arcia (SS)
-Thairo Estrada (2B)
-Tyler Freeman (RF)
-Warming Bernabel (SS)</t>
-  </si>
-  <si>
     <t>Austin Wynns (C)
 Brent Rooker (RF)
 Colby Thomas (RF)
@@ -347,6 +356,12 @@
 Isaac Collins (LF)</t>
   </si>
   <si>
+    <t>Angel Martínez (CF)
+Brayan Rocchio (SS)
+Carlos Santana (1B)
+José Ramírez (3B)</t>
+  </si>
+  <si>
     <t>Ian Happ (LF)
 Willi Castro (LF)</t>
   </si>
@@ -354,7 +369,10 @@
     <t>Bryan Reynolds (RF)</t>
   </si>
   <si>
-    <t>Michael Toglia (1B)</t>
+    <t>Geraldo Perdomo (SS)
+Jorge Barrosa (LF)
+Jose Herrera (C)
+Ketel Marte (2B)</t>
   </si>
   <si>
     <t>Best Hitter/Pitcher Matchups for August 03, 2025</t>
@@ -818,9 +836,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="6.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2" max="5" width="6.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -858,7 +874,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
         <v>6</v>
@@ -976,7 +992,7 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -987,7 +1003,7 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
         <v>6</v>
@@ -1028,7 +1044,7 @@
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1">
         <v>6</v>
@@ -1039,10 +1055,10 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
         <v>7</v>
-      </c>
-      <c r="E18" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1065,7 +1081,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1">
         <v>8</v>
@@ -1091,10 +1107,10 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1106,10 +1122,10 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1117,7 +1133,7 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24" s="1">
         <v>9</v>
@@ -1184,7 +1200,7 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1224,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1291,7 +1307,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1300,17 +1316,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="6.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1359,100 +1373,123 @@
         <v>81</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>83</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
         <v>9</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>88</v>
+      <c r="E8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:G7">
+  <conditionalFormatting sqref="A3:G8">
     <cfRule type="notContainsBlanks" dxfId="6" priority="9">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
@@ -1466,7 +1503,7 @@
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C7">
+  <conditionalFormatting sqref="C3:C8">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -1482,7 +1519,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D7">
+  <conditionalFormatting sqref="D3:D8">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
